--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H2">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I2">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J2">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N2">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O2">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P2">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q2">
-        <v>40.99808952344733</v>
+        <v>19.86673615798178</v>
       </c>
       <c r="R2">
-        <v>368.982805711026</v>
+        <v>178.800625421836</v>
       </c>
       <c r="S2">
-        <v>0.0002075392985575308</v>
+        <v>0.0001085602259620352</v>
       </c>
       <c r="T2">
-        <v>0.0002374308004527818</v>
+        <v>0.0001224566100438246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H3">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I3">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J3">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>145.816244</v>
       </c>
       <c r="O3">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P3">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q3">
-        <v>705.4409558631586</v>
+        <v>625.2140087425057</v>
       </c>
       <c r="R3">
-        <v>6348.968602768427</v>
+        <v>5626.926078682551</v>
       </c>
       <c r="S3">
-        <v>0.003571062038631387</v>
+        <v>0.003416433052917305</v>
       </c>
       <c r="T3">
-        <v>0.00408539550914863</v>
+        <v>0.00385375773119922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H4">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I4">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J4">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N4">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O4">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P4">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q4">
-        <v>3.020813523420333</v>
+        <v>4.172958655488221</v>
       </c>
       <c r="R4">
-        <v>27.187321710783</v>
+        <v>37.55662789939399</v>
       </c>
       <c r="S4">
-        <v>1.52918715728255E-05</v>
+        <v>2.280280620669668E-05</v>
       </c>
       <c r="T4">
-        <v>1.749433159499011E-05</v>
+        <v>2.572170721655348E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H5">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I5">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J5">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N5">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O5">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P5">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q5">
-        <v>404.0026758137955</v>
+        <v>298.974672552172</v>
       </c>
       <c r="R5">
-        <v>2424.016054882773</v>
+        <v>1793.848035313032</v>
       </c>
       <c r="S5">
-        <v>0.002045130222612148</v>
+        <v>0.001633723715415089</v>
       </c>
       <c r="T5">
-        <v>0.001559791034468826</v>
+        <v>0.001228567007637446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.513629</v>
+        <v>12.86305266666667</v>
       </c>
       <c r="H6">
-        <v>43.540887</v>
+        <v>38.589158</v>
       </c>
       <c r="I6">
-        <v>0.005850682752110994</v>
+        <v>0.005202359618317863</v>
       </c>
       <c r="J6">
-        <v>0.005913450266836089</v>
+        <v>0.00525401050020149</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N6">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O6">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P6">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q6">
-        <v>2.303225840526</v>
+        <v>3.813727895982</v>
       </c>
       <c r="R6">
-        <v>20.729032564734</v>
+        <v>34.323551063838</v>
       </c>
       <c r="S6">
-        <v>1.165932073710326E-05</v>
+        <v>2.083981781673707E-05</v>
       </c>
       <c r="T6">
-        <v>1.33385911708609E-05</v>
+        <v>2.350744410444552E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H7">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I7">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J7">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N7">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O7">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P7">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q7">
-        <v>6735.257692669746</v>
+        <v>3682.553719336654</v>
       </c>
       <c r="R7">
-        <v>60617.31923402772</v>
+        <v>33142.98347402988</v>
       </c>
       <c r="S7">
-        <v>0.03409501938721937</v>
+        <v>0.02012302678756334</v>
       </c>
       <c r="T7">
-        <v>0.03900566206412509</v>
+        <v>0.0226988993656649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H8">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I8">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J8">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>145.816244</v>
       </c>
       <c r="O8">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P8">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q8">
-        <v>115891.4154276455</v>
+        <v>115891.4154276456</v>
       </c>
       <c r="R8">
         <v>1043022.73884881</v>
       </c>
       <c r="S8">
-        <v>0.58666204562867</v>
+        <v>0.633279575761145</v>
       </c>
       <c r="T8">
-        <v>0.6711578966345463</v>
+        <v>0.7143432999561099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,43 +977,43 @@
         <v>2384.33138</v>
       </c>
       <c r="H9">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I9">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J9">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N9">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O9">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P9">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q9">
-        <v>496.2659908848066</v>
+        <v>773.5112750884466</v>
       </c>
       <c r="R9">
-        <v>4466.393917963259</v>
+        <v>6961.60147579602</v>
       </c>
       <c r="S9">
-        <v>0.002512182807622944</v>
+        <v>0.004226791866566691</v>
       </c>
       <c r="T9">
-        <v>0.002874007857997498</v>
+        <v>0.004767847512785917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>2384.33138</v>
       </c>
       <c r="H10">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I10">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J10">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N10">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O10">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P10">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q10">
-        <v>66370.4616913385</v>
+        <v>55418.78060086476</v>
       </c>
       <c r="R10">
-        <v>398222.770148031</v>
+        <v>332512.6836051886</v>
       </c>
       <c r="S10">
-        <v>0.335978559598053</v>
+        <v>0.3028315923022514</v>
       </c>
       <c r="T10">
-        <v>0.2562459540426921</v>
+        <v>0.2277306129931103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>2384.33138</v>
       </c>
       <c r="H11">
-        <v>7152.994139999999</v>
+        <v>7152.994140000001</v>
       </c>
       <c r="I11">
-        <v>0.9611632266666733</v>
+        <v>0.9643239135717943</v>
       </c>
       <c r="J11">
-        <v>0.9714748141410159</v>
+        <v>0.9738980653436317</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N11">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O11">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P11">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q11">
-        <v>378.3790840177199</v>
+        <v>706.92325786206</v>
       </c>
       <c r="R11">
-        <v>3405.411756159479</v>
+        <v>6362.30932075854</v>
       </c>
       <c r="S11">
-        <v>0.001915419245108169</v>
+        <v>0.003862926854267923</v>
       </c>
       <c r="T11">
-        <v>0.002191293541654853</v>
+        <v>0.004357405515960632</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H12">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I12">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J12">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N12">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O12">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P12">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q12">
-        <v>3.938741060037556</v>
+        <v>2.084373961948666</v>
       </c>
       <c r="R12">
-        <v>35.448669540338</v>
+        <v>18.75936565753799</v>
       </c>
       <c r="S12">
-        <v>1.993857680447361E-05</v>
+        <v>1.138989849661935E-05</v>
       </c>
       <c r="T12">
-        <v>2.281029319978714E-05</v>
+        <v>1.284787634033689E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H13">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I13">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J13">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>145.816244</v>
       </c>
       <c r="O13">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P13">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q13">
-        <v>67.77265210617377</v>
+        <v>65.59606923379066</v>
       </c>
       <c r="R13">
-        <v>609.9538689555638</v>
+        <v>590.3646231041158</v>
       </c>
       <c r="S13">
-        <v>0.0003430766858405593</v>
+        <v>0.0003584445900732716</v>
       </c>
       <c r="T13">
-        <v>0.0003924893873206924</v>
+        <v>0.0004043277268441887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H14">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I14">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J14">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N14">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O14">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P14">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q14">
-        <v>0.2902135781865556</v>
+        <v>0.4378175809363332</v>
       </c>
       <c r="R14">
-        <v>2.611922203679</v>
+        <v>3.940358228426999</v>
       </c>
       <c r="S14">
-        <v>1.469110467068523E-06</v>
+        <v>2.392419929405678E-06</v>
       </c>
       <c r="T14">
-        <v>1.680703734540894E-06</v>
+        <v>2.698664559327277E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H15">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I15">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J15">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N15">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O15">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P15">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q15">
-        <v>38.8130750990915</v>
+        <v>31.367760551826</v>
       </c>
       <c r="R15">
-        <v>232.878450594549</v>
+        <v>188.206563310956</v>
       </c>
       <c r="S15">
-        <v>0.0001964783841041988</v>
+        <v>0.0001714066742694983</v>
       </c>
       <c r="T15">
-        <v>0.0001498512019450859</v>
+        <v>0.0001288985297265269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.394343666666667</v>
+        <v>1.349563</v>
       </c>
       <c r="H16">
-        <v>4.183031</v>
+        <v>4.048689</v>
       </c>
       <c r="I16">
-        <v>0.0005620828836869034</v>
+        <v>0.0005458200503034487</v>
       </c>
       <c r="J16">
-        <v>0.000568113042417662</v>
+        <v>0.0005512391464475661</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N16">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O16">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P16">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q16">
-        <v>0.221273973838</v>
+        <v>0.400127885181</v>
       </c>
       <c r="R16">
-        <v>1.991465764542</v>
+        <v>3.601150966629</v>
       </c>
       <c r="S16">
-        <v>1.120126470603269E-06</v>
+        <v>2.186467534653837E-06</v>
       </c>
       <c r="T16">
-        <v>1.281456217555638E-06</v>
+        <v>2.466348977186375E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H17">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I17">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J17">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N17">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O17">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P17">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q17">
-        <v>223.137369542873</v>
+        <v>112.6248468831017</v>
       </c>
       <c r="R17">
-        <v>1338.824217257238</v>
+        <v>675.7490812986099</v>
       </c>
       <c r="S17">
-        <v>0.001129559296425636</v>
+        <v>0.0006154296674271237</v>
       </c>
       <c r="T17">
-        <v>0.0008614984239073342</v>
+        <v>0.0004628056615620248</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H18">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I18">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J18">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>145.816244</v>
       </c>
       <c r="O18">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P18">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q18">
-        <v>3839.453035222293</v>
+        <v>3544.348273609336</v>
       </c>
       <c r="R18">
-        <v>23036.71821133376</v>
+        <v>21266.08964165602</v>
       </c>
       <c r="S18">
-        <v>0.01943596394458566</v>
+        <v>0.01936781393840525</v>
       </c>
       <c r="T18">
-        <v>0.01482352662526438</v>
+        <v>0.01456467638332575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H19">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I19">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J19">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N19">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O19">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P19">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q19">
-        <v>16.4411657062715</v>
+        <v>23.65656974988583</v>
       </c>
       <c r="R19">
-        <v>98.64699423762899</v>
+        <v>141.939418499315</v>
       </c>
       <c r="S19">
-        <v>8.322797568887309E-05</v>
+        <v>0.0001292694752229069</v>
       </c>
       <c r="T19">
-        <v>6.347676488330552E-05</v>
+        <v>9.721118133681392E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H20">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I20">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J20">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N20">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O20">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P20">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q20">
-        <v>2198.836468168</v>
+        <v>1694.892228413955</v>
       </c>
       <c r="R20">
-        <v>8795.345872671998</v>
+        <v>6779.568913655819</v>
       </c>
       <c r="S20">
-        <v>0.01113088398876039</v>
+        <v>0.009261606025003375</v>
       </c>
       <c r="T20">
-        <v>0.005659575401578612</v>
+        <v>0.004643177420471136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>78.9922905</v>
+        <v>72.9208525</v>
       </c>
       <c r="H21">
-        <v>157.984581</v>
+        <v>145.841705</v>
       </c>
       <c r="I21">
-        <v>0.03184309255652677</v>
+        <v>0.02949226036851956</v>
       </c>
       <c r="J21">
-        <v>0.02145647521306669</v>
+        <v>0.0198567133658964</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N21">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O21">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P21">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q21">
-        <v>12.535602548607</v>
+        <v>21.6200847951675</v>
       </c>
       <c r="R21">
-        <v>75.213615291642</v>
+        <v>129.720508771005</v>
       </c>
       <c r="S21">
-        <v>6.345735106622435E-05</v>
+        <v>0.0001181412624609085</v>
       </c>
       <c r="T21">
-        <v>4.839799743305088E-05</v>
+        <v>8.884271920067632E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H22">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I22">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J22">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.824799333333333</v>
+        <v>1.544480666666667</v>
       </c>
       <c r="N22">
-        <v>8.474398000000001</v>
+        <v>4.633442</v>
       </c>
       <c r="O22">
-        <v>0.03547266316613188</v>
+        <v>0.02086749742939479</v>
       </c>
       <c r="P22">
-        <v>0.04015097612037852</v>
+        <v>0.02330726404888769</v>
       </c>
       <c r="Q22">
-        <v>4.070706268893112</v>
+        <v>1.663643528022666</v>
       </c>
       <c r="R22">
-        <v>36.63635642003801</v>
+        <v>14.972791752204</v>
       </c>
       <c r="S22">
-        <v>2.060660712486736E-05</v>
+        <v>9.090849945669465E-06</v>
       </c>
       <c r="T22">
-        <v>2.357453869353322E-05</v>
+        <v>1.025453527660379E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H23">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I23">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J23">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>145.816244</v>
       </c>
       <c r="O23">
-        <v>0.6103667195666876</v>
+        <v>0.6567083599695437</v>
       </c>
       <c r="P23">
-        <v>0.6908649476702989</v>
+        <v>0.7334887760600078</v>
       </c>
       <c r="Q23">
-        <v>70.04333506135156</v>
+        <v>52.35551682985866</v>
       </c>
       <c r="R23">
-        <v>630.390015552164</v>
+        <v>471.199651468728</v>
       </c>
       <c r="S23">
-        <v>0.0003545712689599659</v>
+        <v>0.0002860926270028038</v>
       </c>
       <c r="T23">
-        <v>0.0004056395140190112</v>
+        <v>0.000322714262528778</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H24">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I24">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J24">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2081363333333333</v>
+        <v>0.3244143333333333</v>
       </c>
       <c r="N24">
-        <v>0.624409</v>
+        <v>0.973243</v>
       </c>
       <c r="O24">
-        <v>0.002613690097503238</v>
+        <v>0.004383166078409198</v>
       </c>
       <c r="P24">
-        <v>0.002958396672937644</v>
+        <v>0.004895633005599639</v>
       </c>
       <c r="Q24">
-        <v>0.2999370138921111</v>
+        <v>0.3494441968073333</v>
       </c>
       <c r="R24">
-        <v>2.699433125029</v>
+        <v>3.144997771266</v>
       </c>
       <c r="S24">
-        <v>1.518332151526433E-06</v>
+        <v>1.909510483496542E-06</v>
       </c>
       <c r="T24">
-        <v>1.737014727310469E-06</v>
+        <v>2.15393970102738E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H25">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I25">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J25">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.8360895</v>
+        <v>23.242902</v>
       </c>
       <c r="N25">
-        <v>55.672179</v>
+        <v>46.485804</v>
       </c>
       <c r="O25">
-        <v>0.3495541134706443</v>
+        <v>0.3140351369910371</v>
       </c>
       <c r="P25">
-        <v>0.263770043559252</v>
+        <v>0.2338341363402929</v>
       </c>
       <c r="Q25">
-        <v>40.1134844135665</v>
+        <v>25.036184860908</v>
       </c>
       <c r="R25">
-        <v>240.680906481399</v>
+        <v>150.217109165448</v>
       </c>
       <c r="S25">
-        <v>0.0002030612771146029</v>
+        <v>0.0001368082740976799</v>
       </c>
       <c r="T25">
-        <v>0.0001548718785675169</v>
+        <v>0.0001028803893475498</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.441060333333333</v>
+        <v>1.077154</v>
       </c>
       <c r="H26">
-        <v>4.323181</v>
+        <v>3.231462</v>
       </c>
       <c r="I26">
-        <v>0.0005809151410019268</v>
+        <v>0.0004356463910647825</v>
       </c>
       <c r="J26">
-        <v>0.0005871473366638284</v>
+        <v>0.0004399716438229128</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.158694</v>
+        <v>0.296487</v>
       </c>
       <c r="N26">
-        <v>0.476082</v>
+        <v>0.8894609999999999</v>
       </c>
       <c r="O26">
-        <v>0.001992813699033064</v>
+        <v>0.004005839531615356</v>
       </c>
       <c r="P26">
-        <v>0.002255635977132776</v>
+        <v>0.004474190545211894</v>
       </c>
       <c r="Q26">
-        <v>0.228687628538</v>
+        <v>0.319362157998</v>
       </c>
       <c r="R26">
-        <v>2.058188656842</v>
+        <v>2.874259421982</v>
       </c>
       <c r="S26">
-        <v>1.157655650964364E-06</v>
+        <v>1.745129535132868E-06</v>
       </c>
       <c r="T26">
-        <v>1.324390656456622E-06</v>
+        <v>1.968516968953812E-06</v>
       </c>
     </row>
   </sheetData>
